--- a/data_year/zb/能源/煤油平衡表.xlsx
+++ b/data_year/zb/能源/煤油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,977 +508,540 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>535.9</v>
+        <v>1601.08</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1</v>
+        <v>58.726181</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>72.2</v>
+        <v>20.52</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>40.2</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>8.7701780702</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>34.9776</v>
       </c>
       <c r="I2" t="n">
-        <v>256.3</v>
+        <v>870.5</v>
       </c>
       <c r="J2" t="n">
-        <v>880.9</v>
+        <v>1767.62</v>
       </c>
       <c r="K2" t="n">
-        <v>9.300000000000001</v>
+        <v>2.44604092980012</v>
       </c>
       <c r="L2" t="n">
-        <v>-57.6</v>
+        <v>-12.33</v>
       </c>
       <c r="M2" t="n">
-        <v>872.3</v>
+        <v>1924.39</v>
       </c>
       <c r="N2" t="n">
-        <v>871.6</v>
+        <v>1765.1739590702</v>
       </c>
       <c r="O2" t="n">
-        <v>322.5</v>
+        <v>726.0599999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.6900000000001</v>
+        <v>1646.35</v>
       </c>
       <c r="C3" t="n">
-        <v>151.09</v>
+        <v>68.235530922</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>23.48</v>
       </c>
       <c r="F3" t="n">
-        <v>86</v>
+        <v>34.21</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>10.79421368424</v>
       </c>
       <c r="H3" t="n">
-        <v>12.47</v>
+        <v>32.179392</v>
       </c>
       <c r="I3" t="n">
-        <v>246.42</v>
+        <v>966.79</v>
       </c>
       <c r="J3" t="n">
-        <v>894.23</v>
+        <v>1821.73</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95999999999992</v>
+        <v>5.01086339376025</v>
       </c>
       <c r="L3" t="n">
-        <v>52.71</v>
+        <v>-9</v>
       </c>
       <c r="M3" t="n">
-        <v>789.35</v>
+        <v>1922.43</v>
       </c>
       <c r="N3" t="n">
-        <v>890.27</v>
+        <v>1816.71913660624</v>
       </c>
       <c r="O3" t="n">
-        <v>298.59</v>
+        <v>875.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.75</v>
+        <v>1787.09</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>74.17202211221399</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="E4" t="n">
-        <v>40.7</v>
+        <v>25.58</v>
       </c>
       <c r="F4" t="n">
-        <v>107.35</v>
+        <v>32.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.89316026318</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>28.63965888</v>
       </c>
       <c r="I4" t="n">
-        <v>240.94</v>
+        <v>1085.88</v>
       </c>
       <c r="J4" t="n">
-        <v>914.78</v>
+        <v>1959.05</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.42000000000007</v>
+        <v>2.44515874460603</v>
       </c>
       <c r="L4" t="n">
-        <v>5.28</v>
+        <v>3.65</v>
       </c>
       <c r="M4" t="n">
-        <v>826.11</v>
+        <v>2163.95</v>
       </c>
       <c r="N4" t="n">
-        <v>919.2</v>
+        <v>1956.60484125539</v>
       </c>
       <c r="O4" t="n">
-        <v>324.33</v>
+        <v>877.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>741.6799999999999</v>
+        <v>1998.18</v>
       </c>
       <c r="C5" t="n">
-        <v>43.19</v>
+        <v>84.55610520792391</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="E5" t="n">
-        <v>36.38</v>
+        <v>27.92</v>
       </c>
       <c r="F5" t="n">
-        <v>87.77</v>
+        <v>27.41</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.42</v>
       </c>
       <c r="H5" t="n">
-        <v>11.24</v>
+        <v>13.39</v>
       </c>
       <c r="I5" t="n">
-        <v>275.89</v>
+        <v>1280.57</v>
       </c>
       <c r="J5" t="n">
-        <v>914.51</v>
+        <v>2189.08</v>
       </c>
       <c r="K5" t="n">
-        <v>-7.09999999999991</v>
+        <v>25.0138947920759</v>
       </c>
       <c r="L5" t="n">
-        <v>17.73</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>855.3</v>
+        <v>2523.85</v>
       </c>
       <c r="N5" t="n">
-        <v>921.61</v>
+        <v>2164.06610520792</v>
       </c>
       <c r="O5" t="n">
-        <v>317.37</v>
+        <v>945.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.71</v>
+        <v>2216</v>
       </c>
       <c r="C6" t="n">
-        <v>48.19</v>
+        <v>50.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>27.358962</v>
+        <v>28.9</v>
       </c>
       <c r="F6" t="n">
-        <v>60.89</v>
+        <v>17.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.63</v>
+        <v>11.3</v>
       </c>
       <c r="I6" t="n">
-        <v>331.5</v>
+        <v>1455.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1054.450147</v>
+        <v>2336.4</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.408815</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.710147</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>962.24</v>
+        <v>3081</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.858962</v>
+        <v>2335.4</v>
       </c>
       <c r="O6" t="n">
-        <v>421</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.4</v>
+        <v>2504.9</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2</v>
+        <v>83.3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="E7" t="n">
-        <v>25.5</v>
+        <v>29.1</v>
       </c>
       <c r="F7" t="n">
-        <v>57.5</v>
+        <v>21.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>11.7</v>
       </c>
       <c r="I7" t="n">
-        <v>447.6</v>
+        <v>1626.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1070</v>
+        <v>2732.6</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>35</v>
+        <v>-15.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1006.5</v>
+        <v>3658.6</v>
       </c>
       <c r="N7" t="n">
-        <v>1076.8</v>
+        <v>2663.7</v>
       </c>
       <c r="O7" t="n">
-        <v>476.1</v>
+        <v>716.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1010.54</v>
+        <v>2814.9</v>
       </c>
       <c r="C8" t="n">
-        <v>37.969</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>22.728</v>
+        <v>26.4</v>
       </c>
       <c r="F8" t="n">
-        <v>48.1894883</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
       <c r="H8" t="n">
-        <v>3.772026</v>
+        <v>11.2</v>
       </c>
       <c r="I8" t="n">
-        <v>584.39</v>
+        <v>1721.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1117.88</v>
+        <v>3020.7</v>
       </c>
       <c r="K8" t="n">
-        <v>-6.85902600000009</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.9</v>
+        <v>-18.2</v>
       </c>
       <c r="M8" t="n">
-        <v>975.48</v>
+        <v>3983.9</v>
       </c>
       <c r="N8" t="n">
-        <v>1124.739026</v>
+        <v>2970.7</v>
       </c>
       <c r="O8" t="n">
-        <v>731.6900000000001</v>
+        <v>776.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1129.98</v>
+        <v>3173.3</v>
       </c>
       <c r="C9" t="n">
-        <v>43.173</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>19.4806</v>
+        <v>27.6</v>
       </c>
       <c r="F9" t="n">
-        <v>45.2422508463011</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="H9" t="n">
-        <v>4.901</v>
+        <v>11.3</v>
       </c>
       <c r="I9" t="n">
-        <v>637.0700000000001</v>
+        <v>1765.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1239.22224</v>
+        <v>3332.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.49236000000019</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.02776</v>
+        <v>14.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.28</v>
+        <v>4230.9</v>
       </c>
       <c r="N9" t="n">
-        <v>1243.7146</v>
+        <v>3326.4</v>
       </c>
       <c r="O9" t="n">
-        <v>725.04</v>
+        <v>852.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1174.59</v>
+        <v>3462.5</v>
       </c>
       <c r="C10" t="n">
-        <v>25.9038</v>
+        <v>103.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1.26</v>
+        <v>4.9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.68095</v>
+        <v>24.6</v>
       </c>
       <c r="F10" t="n">
-        <v>49.08389732</v>
+        <v>24.9</v>
       </c>
       <c r="G10" t="n">
-        <v>9.67</v>
+        <v>17.3</v>
       </c>
       <c r="H10" t="n">
-        <v>20.82</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="n">
-        <v>706.54</v>
+        <v>1947</v>
       </c>
       <c r="J10" t="n">
-        <v>1290.4239104</v>
+        <v>3714.3</v>
       </c>
       <c r="K10" t="n">
-        <v>-3.58083959999976</v>
+        <v>60.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2739104</v>
+        <v>-51.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1158.9</v>
+        <v>4770.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1294.00475</v>
+        <v>3653.5</v>
       </c>
       <c r="O10" t="n">
-        <v>836.79</v>
+        <v>942.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1314.25</v>
+        <v>3689.2</v>
       </c>
       <c r="C11" t="n">
-        <v>33.67494</v>
+        <v>184.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.76</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>19.152112</v>
+        <v>23.4</v>
       </c>
       <c r="F11" t="n">
-        <v>32.04</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>10.387514</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>29.148</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>826.05</v>
+        <v>2239.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1448.21160658432</v>
+        <v>4002.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.79904058432021</v>
+        <v>52.6</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.09839341568</v>
+        <v>-10</v>
       </c>
       <c r="M11" t="n">
-        <v>1480.3</v>
+        <v>5322.6</v>
       </c>
       <c r="N11" t="n">
-        <v>1439.412566</v>
+        <v>3950.2</v>
       </c>
       <c r="O11" t="n">
-        <v>795.0599999999999</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1601.1</v>
+        <v>3110.8</v>
       </c>
       <c r="C12" t="n">
-        <v>58.7</v>
+        <v>183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>20.5</v>
+        <v>12.4</v>
       </c>
       <c r="F12" t="n">
-        <v>40.2</v>
+        <v>9.4</v>
       </c>
       <c r="G12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>14.8</v>
       </c>
       <c r="I12" t="n">
-        <v>870.5</v>
+        <v>1226.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1767.6</v>
+        <v>3412.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>60.3</v>
       </c>
       <c r="L12" t="n">
-        <v>-12.3</v>
+        <v>-4.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1924.4</v>
+        <v>4129.4</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.2</v>
+        <v>3352.1</v>
       </c>
       <c r="O12" t="n">
-        <v>726.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1646.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>966.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1821.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1922.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1816.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>875.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1787.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>32</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1085.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1959.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2164</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1956.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>877.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1998.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1280.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2189.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2523.9</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2164.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>945.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2216</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1455.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2336.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3081</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2335.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2504.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1626.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2732.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-15.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3658.6</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2663.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>716.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2814.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1721.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3020.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3983.9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2970.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>776.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3173.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1765.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3332.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4230.9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3326.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>852.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3462.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1947</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3714.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-51.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4770.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3653.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>942.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3689.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>16</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2239.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4002.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-10</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5322.6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3950.23</v>
-      </c>
-      <c r="O21" t="n">
-        <v>930</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
